--- a/DataTest/Profile.xlsx
+++ b/DataTest/Profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{AB8DA931-E2F9-4B20-96F1-C0EE8B4BC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA55B2C1-FB38-4416-88D9-F9408E6BCEB7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAB494E-42E2-4358-BEF9-CB54709F0FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="4440" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UpdateBasicInfo" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>124 Thụy Khuê</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>editAddressInvalidWithoutAddress</t>
+  </si>
+  <si>
+    <t>43Q Bình Xuyên</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -491,16 +491,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,17 +677,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BF900A-848F-485F-ABA9-DA78E3F6C339}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,13 +701,13 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>123</v>
@@ -741,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>123</v>
@@ -761,16 +761,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>123</v>
@@ -784,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>123</v>
@@ -807,16 +807,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>123</v>
@@ -830,16 +830,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>123456</v>
@@ -850,16 +850,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>123</v>
@@ -878,12 +878,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,13 +897,13 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -911,19 +911,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
       </c>
       <c r="F2">
         <v>999</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
       </c>
       <c r="F3">
         <v>999</v>
@@ -957,10 +957,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>999</v>
@@ -974,13 +974,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>999</v>
@@ -994,16 +994,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>999</v>
@@ -1017,16 +1017,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
       <c r="G7">
         <v>888</v>
@@ -1037,16 +1037,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
       </c>
       <c r="F8">
         <v>999</v>
